--- a/kaiju/tax_summarized/exo.family.table.xlsx
+++ b/kaiju/tax_summarized/exo.family.table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/CRDS_Calcs/kaiju/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/tax_summarized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49B4EAC-DBE3-4D02-9E71-F461368AA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{B49B4EAC-DBE3-4D02-9E71-F461368AA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962FE319-6C42-4708-9D6B-8C6D79F65C18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="13350" yWindow="1665" windowWidth="12345" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exo.family.sum" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>cannot be assigned to a (non-viral) family</t>
-  </si>
-  <si>
-    <t>unclassified</t>
-  </si>
-  <si>
-    <t>Viruses</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
@@ -46,12 +37,6 @@
     <t>Actinobacteria</t>
   </si>
   <si>
-    <t>Actinomycetales</t>
-  </si>
-  <si>
-    <t>Actinomycetaceae</t>
-  </si>
-  <si>
     <t>Actinopolysporales</t>
   </si>
   <si>
@@ -61,21 +46,9 @@
     <t>Micrococcales</t>
   </si>
   <si>
-    <t>Cellulomonadaceae</t>
-  </si>
-  <si>
-    <t>Microbacteriaceae</t>
-  </si>
-  <si>
     <t>Micrococcaceae</t>
   </si>
   <si>
-    <t>Streptomycetales</t>
-  </si>
-  <si>
-    <t>Streptomycetaceae</t>
-  </si>
-  <si>
     <t>Bacteroidetes</t>
   </si>
   <si>
@@ -118,33 +91,15 @@
     <t>Prolixibacteraceae</t>
   </si>
   <si>
-    <t>Chitinophagia</t>
-  </si>
-  <si>
-    <t>Chitinophagales</t>
-  </si>
-  <si>
-    <t>Chitinophagaceae</t>
-  </si>
-  <si>
     <t>Cytophagia</t>
   </si>
   <si>
     <t>Cytophagales</t>
   </si>
   <si>
-    <t>Cyclobacteriaceae</t>
-  </si>
-  <si>
     <t>Cytophagaceae</t>
   </si>
   <si>
-    <t>Flammeovirgaceae</t>
-  </si>
-  <si>
-    <t>Hymenobacteraceae</t>
-  </si>
-  <si>
     <t>Flavobacteriia</t>
   </si>
   <si>
@@ -205,9 +160,6 @@
     <t>Carnobacteriaceae</t>
   </si>
   <si>
-    <t>Streptococcaceae</t>
-  </si>
-  <si>
     <t>Clostridia</t>
   </si>
   <si>
@@ -220,39 +172,15 @@
     <t>Eubacteriaceae</t>
   </si>
   <si>
-    <t>Hungateiclostridiaceae</t>
-  </si>
-  <si>
     <t>Lachnospiraceae</t>
   </si>
   <si>
-    <t>Oscillospiraceae</t>
-  </si>
-  <si>
     <t>Ruminococcaceae</t>
   </si>
   <si>
-    <t>Erysipelotrichia</t>
-  </si>
-  <si>
-    <t>Erysipelotrichales</t>
-  </si>
-  <si>
-    <t>Erysipelotrichaceae</t>
-  </si>
-  <si>
     <t>Proteobacteria</t>
   </si>
   <si>
-    <t>Alphaproteobacteria</t>
-  </si>
-  <si>
-    <t>Sphingomonadales</t>
-  </si>
-  <si>
-    <t>Sphingomonadaceae</t>
-  </si>
-  <si>
     <t>Betaproteobacteria</t>
   </si>
   <si>
@@ -262,36 +190,6 @@
     <t>Burkholderiaceae</t>
   </si>
   <si>
-    <t>Gammaproteobacteria</t>
-  </si>
-  <si>
-    <t>Alteromonadales</t>
-  </si>
-  <si>
-    <t>Alteromonadaceae</t>
-  </si>
-  <si>
-    <t>Enterobacterales</t>
-  </si>
-  <si>
-    <t>Erwiniaceae</t>
-  </si>
-  <si>
-    <t>Pectobacteriaceae</t>
-  </si>
-  <si>
-    <t>Verrucomicrobia</t>
-  </si>
-  <si>
-    <t>Verrucomicrobiae</t>
-  </si>
-  <si>
-    <t>Verrucomicrobiales</t>
-  </si>
-  <si>
-    <t>Akkermansiaceae</t>
-  </si>
-  <si>
     <t>Eukaryota</t>
   </si>
   <si>
@@ -310,18 +208,6 @@
     <t>Trichocomaceae</t>
   </si>
   <si>
-    <t>Chytridiomycota</t>
-  </si>
-  <si>
-    <t>Neocallimastigomycetes</t>
-  </si>
-  <si>
-    <t>Neocallimastigales</t>
-  </si>
-  <si>
-    <t>Neocallimastigaceae</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -343,9 +229,6 @@
     <t>0.005 ± 0.005</t>
   </si>
   <si>
-    <t>0.013 ± 0.013</t>
-  </si>
-  <si>
     <t>0.651 ± 0.459</t>
   </si>
   <si>
@@ -376,15 +259,9 @@
     <t>0.032 ± 0.015</t>
   </si>
   <si>
-    <t>0.008 ± 0.005</t>
-  </si>
-  <si>
     <t>0.044 ± 0.015</t>
   </si>
   <si>
-    <t>0.007 ± 0.007</t>
-  </si>
-  <si>
     <t>0.125 ± 0.075</t>
   </si>
   <si>
@@ -412,9 +289,6 @@
     <t>0.059 ± 0.039</t>
   </si>
   <si>
-    <t>0.048 ± 0.048</t>
-  </si>
-  <si>
     <t>0.469 ± 0.203</t>
   </si>
   <si>
@@ -424,21 +298,12 @@
     <t>0.045 ± 0.037</t>
   </si>
   <si>
-    <t>0.050 ± 0.050</t>
-  </si>
-  <si>
-    <t>16.994 ± 2.590</t>
-  </si>
-  <si>
     <t>0.040 ± 0.030</t>
   </si>
   <si>
     <t>0.082 ± 0.051</t>
   </si>
   <si>
-    <t>48.046 ± 3.366</t>
-  </si>
-  <si>
     <t>0.156 ± 0.125</t>
   </si>
   <si>
@@ -448,9 +313,6 @@
     <t>0.563 ± 0.334</t>
   </si>
   <si>
-    <t>0.005 ± 0.003</t>
-  </si>
-  <si>
     <t>16.192 ± 6.189</t>
   </si>
   <si>
@@ -481,9 +343,6 @@
     <t>0.076 ± 0.023</t>
   </si>
   <si>
-    <t>0.011 ± 0.011</t>
-  </si>
-  <si>
     <t>0.198 ± 0.097</t>
   </si>
   <si>
@@ -520,27 +379,15 @@
     <t>0.036 ± 0.029</t>
   </si>
   <si>
-    <t>0.015 ± 0.015</t>
-  </si>
-  <si>
-    <t>13.032 ± 1.073</t>
-  </si>
-  <si>
     <t>0.037 ± 0.014</t>
   </si>
   <si>
     <t>0.053 ± 0.021</t>
   </si>
   <si>
-    <t>46.181 ± 2.712</t>
-  </si>
-  <si>
     <t>0.020 ± 0.013</t>
   </si>
   <si>
-    <t>0.024 ± 0.017</t>
-  </si>
-  <si>
     <t>23.407 ± 10.673</t>
   </si>
   <si>
@@ -574,9 +421,6 @@
     <t>0.022 ± 0.016</t>
   </si>
   <si>
-    <t>0.014 ± 0.014</t>
-  </si>
-  <si>
     <t>0.186 ± 0.085</t>
   </si>
   <si>
@@ -586,22 +430,25 @@
     <t>0.077 ± 0.074</t>
   </si>
   <si>
-    <t>0.424 ± 0.424</t>
-  </si>
-  <si>
-    <t>0.002 ± 0.002</t>
-  </si>
-  <si>
-    <t>32.106 ± 6.153</t>
-  </si>
-  <si>
-    <t>24.026 ± 5.322</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>59.274 ± 3.358</t>
+  </si>
+  <si>
+    <t>56.601 ± 7.650</t>
+  </si>
+  <si>
+    <t>65.181 ± 1.686</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,25 +1305,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -1484,1214 +1331,730 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
